--- a/RTT - Project.xlsx
+++ b/RTT - Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaly/Documents/GitHub/tracerouteViz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD51A657-6710-0D4D-82DE-3061D79808AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED25D5-840C-844B-8571-D3ED4FF66A83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="460" windowWidth="12960" windowHeight="17540" xr2:uid="{F0AA3570-AB47-5D48-8D85-8C896A4F2226}"/>
   </bookViews>
@@ -2010,7 +2010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7108FD4C-DA73-574F-BF63-51271A34164C}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2021,7 +2021,7 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
